--- a/document/init_req_survey.xlsx
+++ b/document/init_req_survey.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumen\ITS\Perkuliahan\Semester 2 Ganjil\IMK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imk_new\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D078DBA0-C306-4C42-A8CA-003A5D73EF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299DFC8-755B-4A7A-8BB2-64A4F31D752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DF22AFB-A1D4-431B-8328-58F9833EB3DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7DF22AFB-A1D4-431B-8328-58F9833EB3DE}"/>
   </bookViews>
   <sheets>
     <sheet name="initial requirement" sheetId="1" r:id="rId1"/>
+    <sheet name="Pertanyaan IMI" sheetId="2" r:id="rId2"/>
+    <sheet name="QA(simulasi)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -50,9 +52,6 @@
     <t>Open ended</t>
   </si>
   <si>
-    <t>apa yang menjadi faktor yang membuat anda bosan untuk mengisi survei?</t>
-  </si>
-  <si>
     <t>menurut anda, apa saja hal yang harus dihindari dalam membuat sebuah survei?</t>
   </si>
   <si>
@@ -74,9 +73,6 @@
     <t>skala 1- 10</t>
   </si>
   <si>
-    <t>Kompetisi</t>
-  </si>
-  <si>
     <t>Tangtangan</t>
   </si>
   <si>
@@ -90,13 +86,220 @@
   </si>
   <si>
     <t>5.3</t>
+  </si>
+  <si>
+    <t>Aspek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skala </t>
+  </si>
+  <si>
+    <t>Enjoyment</t>
+  </si>
+  <si>
+    <t>Saya sangat menikmati melakukan kegiatan ini</t>
+  </si>
+  <si>
+    <t>Kegiatan ini menyenangkan untuk dilakukan.</t>
+  </si>
+  <si>
+    <t>Saya pikir ini adalah kegiatan yang membosankan [R]</t>
+  </si>
+  <si>
+    <t>Kegiatan ini sama sekali tidak menarik perhatian saya. [R]</t>
+  </si>
+  <si>
+    <t>Saya rasa saya cukup berhasil dalam kegiatan ini, dibandingkan dengan partisipan lainnya</t>
+  </si>
+  <si>
+    <t>Saya rasa saya cukup mahir dalam kegiatan ini.</t>
+  </si>
+  <si>
+    <t>Setelah beberapa lama mengerjakan kegiatan ini, saya merasa cukup kompeten</t>
+  </si>
+  <si>
+    <t>Competence</t>
+  </si>
+  <si>
+    <t>Saya berusaha keras dalam hal ini</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Saya tidak berusaha keras untuk melakukan kegiatan ini dengan baik.  [R]</t>
+  </si>
+  <si>
+    <t>Ini adalah aktivitas yang tidak dapat saya lakukan dengan baik [R]</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>Usefullness</t>
+  </si>
+  <si>
+    <t>Saya yakin kegiatan ini dapat memberikan manfaat bagi saya.</t>
+  </si>
+  <si>
+    <t>Saya bersedia melakukan ini lagi karena ini ada nilainya bagi saya</t>
+  </si>
+  <si>
+    <t>Saya pikir ini adalah kegiatan yang penting</t>
+  </si>
+  <si>
+    <t>Original Scale:</t>
+  </si>
+  <si>
+    <t>Strongly Disagree: 1</t>
+  </si>
+  <si>
+    <t>Disagree: 2</t>
+  </si>
+  <si>
+    <t>Somewhat Disagree: 3</t>
+  </si>
+  <si>
+    <t>Neutral: 4</t>
+  </si>
+  <si>
+    <t>Somewhat Agree: 5</t>
+  </si>
+  <si>
+    <t>Agree: 6</t>
+  </si>
+  <si>
+    <t>Strongly Agree: 7</t>
+  </si>
+  <si>
+    <t>Reverse Scale:</t>
+  </si>
+  <si>
+    <t>Strongly Disagree: 7</t>
+  </si>
+  <si>
+    <t>Disagree: 6</t>
+  </si>
+  <si>
+    <t>Somewhat Disagree: 5</t>
+  </si>
+  <si>
+    <t>Somewhat Agree: 3</t>
+  </si>
+  <si>
+    <t>Agree: 2</t>
+  </si>
+  <si>
+    <t>Strongly Agree: 1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>Partisipan</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Pertanyaan (skor1-7)</t>
+  </si>
+  <si>
+    <t>Q3 [R]</t>
+  </si>
+  <si>
+    <t>Q4 [R]</t>
+  </si>
+  <si>
+    <t>Q8 [R]</t>
+  </si>
+  <si>
+    <t>Q10 [R]</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Total AVG</t>
+  </si>
+  <si>
+    <t>Overall Score</t>
+  </si>
+  <si>
+    <t>AVG (Enj)</t>
+  </si>
+  <si>
+    <t>AVG(Comp)</t>
+  </si>
+  <si>
+    <t>AVG(IMP)</t>
+  </si>
+  <si>
+    <t>AVG(Val)</t>
+  </si>
+  <si>
+    <t>Value/Usefullness</t>
+  </si>
+  <si>
+    <t>menurut anda, apa yang menjadi faktor yang membuat anda bosan untuk mengisi survei?</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>Keterbegunaan</t>
+  </si>
+  <si>
+    <t>Tingkat Kepentingan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +316,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -145,11 +415,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,6 +464,86 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,6 +559,931 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8D43-4FE8-B2A4-2A1BF1900242}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'QA(simulasi)'!$A$18:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Overall Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Enjoyment</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Competence</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Importance</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Value/Usefullness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QA(simulasi)'!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.7846153846153854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D43-4FE8-B2A4-2A1BF1900242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1539995376"/>
+        <c:axId val="1342567520"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:tint val="77000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'QA(simulasi)'!$A$18:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Overall Score</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Enjoyment</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Competence</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Importance</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Value/Usefullness</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'QA(simulasi)'!$B$18:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8D43-4FE8-B2A4-2A1BF1900242}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1539995376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342567520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1342567520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1539995376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="24">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AABD23E-DF99-296D-34A1-BDCA27BE695C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A237F0-01FE-4D2F-8797-3F972D4153E5}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -521,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -532,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -543,10 +1844,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -554,51 +1855,62 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -606,4 +1918,1181 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB900429-B4DD-4210-B3CE-EC1D2187B7EB}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69D107D-D953-4D3C-AB75-B0833F936A37}">
+  <dimension ref="A1:Z22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2">
+        <v>6</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="36"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="37"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="43">
+        <v>2</v>
+      </c>
+      <c r="C11" s="43">
+        <v>6</v>
+      </c>
+      <c r="D11" s="43">
+        <f>IF(D3=1,7,IF(D3=2,6,IF(D3=3,5,IF(D3=4,4,IF(D3=5,3,IF(D3=6,2,1))))))</f>
+        <v>6</v>
+      </c>
+      <c r="E11" s="43">
+        <f>IF(E3=1,7,IF(E3=2,6,IF(E3=3,5,IF(E3=4,4,IF(E3=5,3,IF(E3=6,2,1))))))</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="24">
+        <v>2</v>
+      </c>
+      <c r="G11" s="24">
+        <v>7</v>
+      </c>
+      <c r="H11" s="24">
+        <v>6</v>
+      </c>
+      <c r="I11" s="24">
+        <f>IF(I3=1,7,IF(I3=2,6,IF(I3=3,5,IF(I3=4,4,IF(I3=5,3,IF(I3=6,2,1))))))</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="26">
+        <v>4</v>
+      </c>
+      <c r="K11" s="26">
+        <f>IF(K3=1,7,IF(K3=2,6,IF(K3=3,5,IF(K3=4,4,IF(K3=5,3,IF(K3=6,2,1))))))</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="28">
+        <v>2</v>
+      </c>
+      <c r="M11" s="28">
+        <v>4</v>
+      </c>
+      <c r="N11" s="28">
+        <v>5</v>
+      </c>
+      <c r="O11" s="14">
+        <f>AVERAGE(B11:E11)</f>
+        <v>4.25</v>
+      </c>
+      <c r="P11" s="14">
+        <f>AVERAGE(F11:I11)</f>
+        <v>5.25</v>
+      </c>
+      <c r="Q11" s="14">
+        <f>AVERAGE(J11:K11)</f>
+        <v>2.5</v>
+      </c>
+      <c r="R11" s="14">
+        <f>AVERAGE(L11:N11)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="S11" s="2">
+        <f>AVERAGE(B11:N11)</f>
+        <v>4.1538461538461542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="43">
+        <v>4</v>
+      </c>
+      <c r="C12" s="43">
+        <v>5</v>
+      </c>
+      <c r="D12" s="43">
+        <f t="shared" ref="D12:E15" si="0">IF(D4=1,7,IF(D4=2,6,IF(D4=3,5,IF(D4=4,4,IF(D4=5,3,IF(D4=6,2,1))))))</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="24">
+        <v>7</v>
+      </c>
+      <c r="G12" s="24">
+        <v>7</v>
+      </c>
+      <c r="H12" s="24">
+        <v>3</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" ref="I12:J15" si="1">IF(I4=1,7,IF(I4=2,6,IF(I4=3,5,IF(I4=4,4,IF(I4=5,3,IF(I4=6,2,1))))))</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="26">
+        <v>4</v>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" ref="K12:K15" si="2">IF(K4=1,7,IF(K4=2,6,IF(K4=3,5,IF(K4=4,4,IF(K4=5,3,IF(K4=6,2,1))))))</f>
+        <v>7</v>
+      </c>
+      <c r="L12" s="28">
+        <v>6</v>
+      </c>
+      <c r="M12" s="28">
+        <v>4</v>
+      </c>
+      <c r="N12" s="28">
+        <v>4</v>
+      </c>
+      <c r="O12" s="14">
+        <f>AVERAGE(B12:E12)</f>
+        <v>3.5</v>
+      </c>
+      <c r="P12" s="14">
+        <f>AVERAGE(F12:I12)</f>
+        <v>4.5</v>
+      </c>
+      <c r="Q12" s="14">
+        <f>AVERAGE(J12:K12)</f>
+        <v>5.5</v>
+      </c>
+      <c r="R12" s="14">
+        <f>AVERAGE(L12:N12)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="S12" s="2">
+        <f>AVERAGE(B12:N12)</f>
+        <v>4.384615384615385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="43">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43">
+        <v>4</v>
+      </c>
+      <c r="D13" s="43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="24">
+        <v>7</v>
+      </c>
+      <c r="G13" s="24">
+        <v>6</v>
+      </c>
+      <c r="H13" s="24">
+        <v>7</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="26">
+        <v>1</v>
+      </c>
+      <c r="K13" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="28">
+        <v>3</v>
+      </c>
+      <c r="M13" s="28">
+        <v>1</v>
+      </c>
+      <c r="N13" s="28">
+        <v>4</v>
+      </c>
+      <c r="O13" s="14">
+        <f>AVERAGE(B13:E13)</f>
+        <v>2.5</v>
+      </c>
+      <c r="P13" s="14">
+        <f>AVERAGE(F13:I13)</f>
+        <v>5.25</v>
+      </c>
+      <c r="Q13" s="14">
+        <f>AVERAGE(J13:K13)</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="14">
+        <f>AVERAGE(L13:N13)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="S13" s="2">
+        <f>AVERAGE(B13:N13)</f>
+        <v>3.1538461538461537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="43">
+        <v>1</v>
+      </c>
+      <c r="C14" s="43">
+        <v>3</v>
+      </c>
+      <c r="D14" s="43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="24">
+        <v>3</v>
+      </c>
+      <c r="G14" s="24">
+        <v>2</v>
+      </c>
+      <c r="H14" s="24">
+        <v>6</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J14" s="26">
+        <v>3</v>
+      </c>
+      <c r="K14" s="26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L14" s="28">
+        <v>2</v>
+      </c>
+      <c r="M14" s="28">
+        <v>4</v>
+      </c>
+      <c r="N14" s="28">
+        <v>6</v>
+      </c>
+      <c r="O14" s="14">
+        <f>AVERAGE(B14:E14)</f>
+        <v>2.25</v>
+      </c>
+      <c r="P14" s="14">
+        <f>AVERAGE(F14:I14)</f>
+        <v>4.25</v>
+      </c>
+      <c r="Q14" s="14">
+        <f>AVERAGE(J14:K14)</f>
+        <v>5</v>
+      </c>
+      <c r="R14" s="14">
+        <f>AVERAGE(L14:N14)</f>
+        <v>4</v>
+      </c>
+      <c r="S14" s="2">
+        <f>AVERAGE(B14:N14)</f>
+        <v>3.6923076923076925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="43">
+        <v>5</v>
+      </c>
+      <c r="C15" s="43">
+        <v>2</v>
+      </c>
+      <c r="D15" s="43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="43">
+        <f>IF(E7=1,7,IF(E7=2,6,IF(E7=3,5,IF(E7=4,4,IF(E7=5,3,IF(E7=6,2,1))))))</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="24">
+        <v>5</v>
+      </c>
+      <c r="G15" s="24">
+        <v>5</v>
+      </c>
+      <c r="H15" s="24">
+        <v>3</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J15" s="26">
+        <v>1</v>
+      </c>
+      <c r="K15" s="26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L15" s="28">
+        <v>3</v>
+      </c>
+      <c r="M15" s="28">
+        <v>5</v>
+      </c>
+      <c r="N15" s="28">
+        <v>2</v>
+      </c>
+      <c r="O15" s="14">
+        <f>AVERAGE(B15:E15)</f>
+        <v>2.25</v>
+      </c>
+      <c r="P15" s="14">
+        <f>AVERAGE(F15:I15)</f>
+        <v>5</v>
+      </c>
+      <c r="Q15" s="14">
+        <f>AVERAGE(J15:K15)</f>
+        <v>3.5</v>
+      </c>
+      <c r="R15" s="14">
+        <f>AVERAGE(L15:N15)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="S15" s="2">
+        <f>AVERAGE(B15:N15)</f>
+        <v>3.5384615384615383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="2">
+        <f t="shared" ref="O16:R16" si="3">AVERAGE(O11:O15)</f>
+        <v>2.95</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="S16" s="2">
+        <f>AVERAGE(S11:S15)</f>
+        <v>3.7846153846153854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18">
+        <f>S16</f>
+        <v>3.7846153846153854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44">
+        <f>O16</f>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39">
+        <f>P16</f>
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40">
+        <f>Q16</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41">
+        <f>R16</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="S9:S10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/init_req_survey.xlsx
+++ b/document/init_req_survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imk_new\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299DFC8-755B-4A7A-8BB2-64A4F31D752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953144D7-4BC8-4FFB-89D5-DC0DA2B071B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7DF22AFB-A1D4-431B-8328-58F9833EB3DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7DF22AFB-A1D4-431B-8328-58F9833EB3DE}"/>
   </bookViews>
   <sheets>
     <sheet name="initial requirement" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>Tingkat Kepentingan</t>
+  </si>
+  <si>
+    <t>Pertanyaan (skor1-7)*</t>
+  </si>
+  <si>
+    <t>* hanya data simulasi</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -468,9 +474,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -483,34 +486,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,10 +521,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,18 +533,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,7 +674,7 @@
                   <c:v>3.7846153846153854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.95</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.8499999999999996</c:v>
@@ -1449,16 +1444,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5128</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>180608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309929</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66308</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1893,7 +1888,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1924,15 +1919,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB900429-B4DD-4210-B3CE-EC1D2187B7EB}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="12"/>
+    <col min="4" max="4" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,7 +1940,7 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1953,13 +1948,13 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1967,11 +1962,11 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1979,11 +1974,11 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1991,11 +1986,11 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2003,13 +1998,13 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2017,11 +2012,11 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2029,11 +2024,11 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2041,11 +2036,11 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2053,13 +2048,13 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2067,11 +2062,11 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2079,13 +2074,13 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2093,28 +2088,28 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2154,7 +2149,7 @@
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2208,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69D107D-D953-4D3C-AB75-B0833F936A37}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,27 +2218,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
@@ -2283,13 +2278,13 @@
       <c r="N2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="2">
@@ -2331,21 +2326,21 @@
       <c r="N3" s="2">
         <v>5</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="2">
@@ -2387,21 +2382,21 @@
       <c r="N4" s="2">
         <v>4</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="2">
@@ -2443,21 +2438,21 @@
       <c r="N5" s="2">
         <v>4</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="2">
@@ -2499,21 +2494,21 @@
       <c r="N6" s="2">
         <v>6</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="2">
@@ -2555,161 +2550,161 @@
       <c r="N7" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="35" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="P9" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S9" s="40" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="37"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="40"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="27">
         <v>2</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="27">
         <v>6</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="27">
         <f>IF(D3=1,7,IF(D3=2,6,IF(D3=3,5,IF(D3=4,4,IF(D3=5,3,IF(D3=6,2,1))))))</f>
         <v>6</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="27">
         <f>IF(E3=1,7,IF(E3=2,6,IF(E3=3,5,IF(E3=4,4,IF(E3=5,3,IF(E3=6,2,1))))))</f>
         <v>3</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="18">
         <v>2</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="18">
         <v>7</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="18">
         <v>6</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="18">
         <f>IF(I3=1,7,IF(I3=2,6,IF(I3=3,5,IF(I3=4,4,IF(I3=5,3,IF(I3=6,2,1))))))</f>
         <v>6</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="20">
         <v>4</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="20">
         <f>IF(K3=1,7,IF(K3=2,6,IF(K3=3,5,IF(K3=4,4,IF(K3=5,3,IF(K3=6,2,1))))))</f>
         <v>1</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="22">
         <v>2</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="22">
         <v>4</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="22">
         <v>5</v>
       </c>
-      <c r="O11" s="14">
-        <f>AVERAGE(B11:E11)</f>
-        <v>4.25</v>
-      </c>
-      <c r="P11" s="14">
+      <c r="O11" s="13">
+        <f>MEDIAN(B11:E11)</f>
+        <v>4.5</v>
+      </c>
+      <c r="P11" s="13">
         <f>AVERAGE(F11:I11)</f>
         <v>5.25</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="13">
         <f>AVERAGE(J11:K11)</f>
         <v>2.5</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="13">
         <f>AVERAGE(L11:N11)</f>
         <v>3.6666666666666665</v>
       </c>
@@ -2719,65 +2714,65 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="27">
         <v>4</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="27">
         <v>5</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="27">
         <f t="shared" ref="D12:E15" si="0">IF(D4=1,7,IF(D4=2,6,IF(D4=3,5,IF(D4=4,4,IF(D4=5,3,IF(D4=6,2,1))))))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="18">
         <v>7</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="18">
         <v>7</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="18">
         <v>3</v>
       </c>
-      <c r="I12" s="24">
-        <f t="shared" ref="I12:J15" si="1">IF(I4=1,7,IF(I4=2,6,IF(I4=3,5,IF(I4=4,4,IF(I4=5,3,IF(I4=6,2,1))))))</f>
+      <c r="I12" s="18">
+        <f t="shared" ref="I12:I15" si="1">IF(I4=1,7,IF(I4=2,6,IF(I4=3,5,IF(I4=4,4,IF(I4=5,3,IF(I4=6,2,1))))))</f>
         <v>1</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="20">
         <v>4</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="20">
         <f t="shared" ref="K12:K15" si="2">IF(K4=1,7,IF(K4=2,6,IF(K4=3,5,IF(K4=4,4,IF(K4=5,3,IF(K4=6,2,1))))))</f>
         <v>7</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="22">
         <v>6</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="22">
         <v>4</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="22">
         <v>4</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <f>AVERAGE(B12:E12)</f>
         <v>3.5</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="13">
         <f>AVERAGE(F12:I12)</f>
         <v>4.5</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="13">
         <f>AVERAGE(J12:K12)</f>
         <v>5.5</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="13">
         <f>AVERAGE(L12:N12)</f>
         <v>4.666666666666667</v>
       </c>
@@ -2787,65 +2782,65 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="27">
         <v>1</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="27">
         <v>4</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="18">
         <v>7</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="18">
         <v>6</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="18">
         <v>7</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="20">
         <v>1</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="22">
         <v>3</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="22">
         <v>1</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="22">
         <v>4</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="13">
         <f>AVERAGE(B13:E13)</f>
         <v>2.5</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="13">
         <f>AVERAGE(F13:I13)</f>
         <v>5.25</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="13">
         <f>AVERAGE(J13:K13)</f>
         <v>1</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="13">
         <f>AVERAGE(L13:N13)</f>
         <v>2.6666666666666665</v>
       </c>
@@ -2855,65 +2850,65 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="27">
         <v>1</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="27">
         <v>3</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="18">
         <v>3</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="18">
         <v>2</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="18">
         <v>6</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="20">
         <v>3</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="20">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="22">
         <v>2</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="22">
         <v>4</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="22">
         <v>6</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="13">
         <f>AVERAGE(B14:E14)</f>
         <v>2.25</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="13">
         <f>AVERAGE(F14:I14)</f>
         <v>4.25</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="13">
         <f>AVERAGE(J14:K14)</f>
         <v>5</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="13">
         <f>AVERAGE(L14:N14)</f>
         <v>4</v>
       </c>
@@ -2923,65 +2918,65 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="27">
         <v>5</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="27">
         <v>2</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="27">
         <f>IF(E7=1,7,IF(E7=2,6,IF(E7=3,5,IF(E7=4,4,IF(E7=5,3,IF(E7=6,2,1))))))</f>
         <v>1</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="18">
         <v>5</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="18">
         <v>5</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="18">
         <v>3</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="20">
         <v>1</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="20">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="22">
         <v>3</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="22">
         <v>5</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="22">
         <v>2</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="13">
         <f>AVERAGE(B15:E15)</f>
         <v>2.25</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="13">
         <f>AVERAGE(F15:I15)</f>
         <v>5</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="13">
         <f>AVERAGE(J15:K15)</f>
         <v>3.5</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="13">
         <f>AVERAGE(L15:N15)</f>
         <v>3.3333333333333335</v>
       </c>
@@ -2991,25 +2986,25 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
       <c r="O16" s="2">
         <f t="shared" ref="O16:R16" si="3">AVERAGE(O11:O15)</f>
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="3"/>
@@ -3028,68 +3023,70 @@
         <v>3.7846153846153854</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="38"/>
       <c r="C18">
         <f>S16</f>
         <v>3.7846153846153854</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28">
         <f>O16</f>
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23">
         <f>P16</f>
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24">
         <f>Q16</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25">
         <f>R16</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="B1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="A16:N16"/>
-    <mergeCell ref="S9:S10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
